--- a/data/trans_dic/P5B_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P5B_R-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,73; 6,15</t>
+          <t>0,73; 6,84</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,21</t>
+          <t>0,0; 4,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,12</t>
+          <t>0,0; 4,34</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,45</t>
+          <t>0,0; 5,86</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,88; 7,22</t>
+          <t>0,87; 7,21</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,54</t>
+          <t>0,0; 3,37</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,46; 4,34</t>
+          <t>0,0; 4,2</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,01; 9,07</t>
+          <t>0,98; 8,99</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,84; 5,37</t>
+          <t>0,85; 5,35</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,31; 3,05</t>
+          <t>0,31; 2,94</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,28; 3,15</t>
+          <t>0,34; 2,89</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,06; 5,84</t>
+          <t>1,08; 6,08</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,6; 7,02</t>
+          <t>2,34; 7,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,74; 4,73</t>
+          <t>0,82; 4,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,36; 2,96</t>
+          <t>0,32; 2,85</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,84; 5,55</t>
+          <t>0,85; 5,17</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,32; 5,5</t>
+          <t>1,38; 5,61</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,89; 5,46</t>
+          <t>0,98; 5,29</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,78; 4,65</t>
+          <t>1,1; 5,78</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,18</t>
+          <t>0,0; 3,04</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,26; 5,39</t>
+          <t>2,36; 5,46</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,28; 4,0</t>
+          <t>1,22; 3,91</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,86; 3,24</t>
+          <t>0,86; 3,07</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,69; 3,33</t>
+          <t>0,72; 3,27</t>
         </is>
       </c>
     </row>
@@ -1004,37 +1004,37 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,04</t>
+          <t>0,0; 4,12</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,78</t>
+          <t>0,0; 4,39</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,85</t>
+          <t>0,0; 3,59</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,46</t>
+          <t>0,0; 2,44</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,24; 10,21</t>
+          <t>2,15; 10,06</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,89</t>
+          <t>0,0; 3,53</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,84; 5,36</t>
+          <t>0,87; 5,31</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,22 +1044,22 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,57; 5,67</t>
+          <t>1,38; 5,53</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,21</t>
+          <t>0,0; 2,32</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,76; 3,42</t>
+          <t>0,74; 3,57</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,45</t>
+          <t>0,0; 1,41</t>
         </is>
       </c>
     </row>
@@ -1144,32 +1144,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,28; 5,92</t>
+          <t>1,34; 6,66</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,46; 3,92</t>
+          <t>0,46; 3,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,17</t>
+          <t>0,0; 4,12</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,39; 2,57</t>
+          <t>0,4; 2,62</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,38; 8,01</t>
+          <t>2,4; 7,96</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,23; 6,88</t>
+          <t>1,21; 6,8</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,27 +1179,27 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,31</t>
+          <t>0,0; 14,93</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,31; 6,02</t>
+          <t>2,35; 6,18</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,04; 4,02</t>
+          <t>1,09; 4,24</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,24; 2,35</t>
+          <t>0,24; 2,42</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,53; 9,21</t>
+          <t>0,53; 8,6</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,92; 4,43</t>
+          <t>1,99; 4,57</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,85; 2,6</t>
+          <t>0,85; 2,66</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,56; 2,0</t>
+          <t>0,53; 2,1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,69; 2,18</t>
+          <t>0,68; 2,18</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,57; 5,55</t>
+          <t>2,53; 5,32</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,17; 3,33</t>
+          <t>1,09; 3,4</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,93; 2,84</t>
+          <t>1,06; 2,89</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,51; 8,1</t>
+          <t>0,49; 7,21</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,64; 4,4</t>
+          <t>2,62; 4,42</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,21; 2,54</t>
+          <t>1,2; 2,53</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,97; 2,11</t>
+          <t>0,94; 2,1</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,89; 4,43</t>
+          <t>0,84; 4,58</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P5B_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P5B_R-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -656,42 +656,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>2,69%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1,06%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1,57%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>3,84%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>2,29%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>1,39%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>0,81%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>1,87%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>2,69%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>1,06%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>1,57%</t>
-        </is>
-      </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>3,86%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>2,8%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,73; 6,84</t>
+          <t>0,88; 7,2</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,28</t>
+          <t>0,0; 3,92</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,34</t>
+          <t>0,45; 4,24</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,86</t>
+          <t>1,03; 9,47</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,87; 7,21</t>
+          <t>0,73; 6,7</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,37</t>
+          <t>0,0; 4,94</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,2</t>
+          <t>0,0; 4,83</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,98; 8,99</t>
+          <t>0,0; 5,78</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,85; 5,35</t>
+          <t>0,83; 5,02</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,31; 2,94</t>
+          <t>0,31; 3,1</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,34; 2,89</t>
+          <t>0,4; 3,2</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,08; 6,08</t>
+          <t>1,02; 5,98</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>2,92%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>2,65%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>2,32%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0,9%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>4,31%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>2,19%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>1,26%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>2,4%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>2,92%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>2,65%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>2,32%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,92%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>1,7%</t>
+          <t>1,72%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,34; 7,29</t>
+          <t>1,29; 5,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,82; 4,45</t>
+          <t>1,15; 5,77</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,32; 2,85</t>
+          <t>1,1; 4,71</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,85; 5,17</t>
+          <t>0,0; 2,91</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,38; 5,61</t>
+          <t>2,35; 7,28</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,98; 5,29</t>
+          <t>0,82; 4,62</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,1; 5,78</t>
+          <t>0,31; 3,13</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,04</t>
+          <t>0,85; 5,43</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,36; 5,46</t>
+          <t>2,27; 5,46</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,22; 3,91</t>
+          <t>1,2; 3,91</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,86; 3,07</t>
+          <t>0,84; 3,01</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,72; 3,27</t>
+          <t>0,73; 3,27</t>
         </is>
       </c>
     </row>
@@ -936,42 +936,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>5,36%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0,71%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>2,4%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>1,14%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>0,64%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>1,02%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,48%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>5,36%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>0,71%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>2,4%</t>
-        </is>
-      </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,43%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,26%</t>
+          <t>0,24%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,12</t>
+          <t>2,31; 10,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,39</t>
+          <t>0,0; 3,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,59</t>
+          <t>0,88; 5,72</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,44</t>
+          <t>0; 0,82</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,15; 10,06</t>
+          <t>0,0; 4,25</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,53</t>
+          <t>0,0; 3,2</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,87; 5,31</t>
+          <t>0,0; 3,27</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,82</t>
+          <t>0,0; 2,22</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,38; 5,53</t>
+          <t>1,58; 5,43</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,32</t>
+          <t>0,0; 2,34</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,74; 3,57</t>
+          <t>0,75; 3,74</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,41</t>
+          <t>0,0; 1,11</t>
         </is>
       </c>
     </row>
@@ -1076,42 +1076,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>4,68%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>3,13%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0,54%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>10,03%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>3,09%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>1,46%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>1,16%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>1,12%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>4,68%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>3,13%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>0,54%</t>
-        </is>
-      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>3,58%</t>
+          <t>1,07%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>2,28%</t>
+          <t>5,32%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,34; 6,66</t>
+          <t>2,34; 8,28</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,46; 3,91</t>
+          <t>1,16; 6,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,12</t>
+          <t>0,0; 2,69</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,4; 2,62</t>
+          <t>0,0; 36,7</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,4; 7,96</t>
+          <t>1,33; 5,86</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,21; 6,8</t>
+          <t>0,46; 4,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,69</t>
+          <t>0,0; 4,42</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,93</t>
+          <t>0,37; 2,68</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,35; 6,18</t>
+          <t>2,27; 5,86</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,09; 4,24</t>
+          <t>1,08; 4,5</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,24; 2,42</t>
+          <t>0,24; 2,5</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,53; 8,6</t>
+          <t>0,57; 25,19</t>
         </is>
       </c>
     </row>
@@ -1216,42 +1216,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>3,83%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2,02%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1,78%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>4,7%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>3,01%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>1,55%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>1,1%</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>1,31%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>3,83%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>2,02%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>1,78%</t>
-        </is>
-      </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1,99%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>1,63%</t>
+          <t>2,87%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,99; 4,57</t>
+          <t>2,59; 5,46</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,85; 2,66</t>
+          <t>1,1; 3,13</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,53; 2,1</t>
+          <t>1,02; 2,77</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,68; 2,18</t>
+          <t>0,51; 19,72</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,53; 5,32</t>
+          <t>1,86; 4,41</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,09; 3,4</t>
+          <t>0,83; 2,59</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,06; 2,89</t>
+          <t>0,57; 2,09</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,49; 7,21</t>
+          <t>0,68; 2,11</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,62; 4,42</t>
+          <t>2,53; 4,31</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,2; 2,53</t>
+          <t>1,12; 2,54</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,94; 2,1</t>
+          <t>0,98; 2,11</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,84; 4,58</t>
+          <t>0,87; 9,57</t>
         </is>
       </c>
     </row>
